--- a/data/qalycalc-prisoners.xlsx
+++ b/data/qalycalc-prisoners.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CiaraMcCarthy\prisons-tidy\Prisons-july2021\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lshtm-my.sharepoint.com/personal/lsh1803589_lshtm_ac_uk/Documents/prisons-vacc-strategies/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A05A1D8-63F1-49F0-800A-2FB8A392F0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{1A05A1D8-63F1-49F0-800A-2FB8A392F0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7600D51-B928-4402-A4BA-3724AA25A968}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0DCEA128-AE48-4478-ACB6-C788E5BEA0A0}"/>
+    <workbookView xWindow="96" yWindow="120" windowWidth="18360" windowHeight="12120" xr2:uid="{0DCEA128-AE48-4478-ACB6-C788E5BEA0A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="36">
   <si>
     <t>age</t>
   </si>
@@ -134,22 +134,16 @@
     <t>compartment</t>
   </si>
   <si>
-    <t>icu_p</t>
-  </si>
-  <si>
-    <t>nonicu_p</t>
-  </si>
-  <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
     <t>SMR=2.3, qCM=0.9, disc rate = 3.5%</t>
   </si>
   <si>
     <t>cases</t>
+  </si>
+  <si>
+    <t>icu_i</t>
+  </si>
+  <si>
+    <t>nonicu_i</t>
   </si>
 </sst>
 </file>
@@ -549,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368DFEBD-9617-4313-9C87-B12A97562515}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,7 +556,7 @@
     <col min="3" max="3" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -572,14 +566,8 @@
       <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -591,7 +579,7 @@
         <v>22.574562913028682</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -603,7 +591,7 @@
         <v>21.827783621676829</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -615,7 +603,7 @@
         <v>20.95864098895451</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -627,7 +615,7 @@
         <v>19.949782062571639</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -639,7 +627,7 @@
         <v>18.996025375907816</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -651,7 +639,7 @@
         <v>17.981434439421367</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -663,7 +651,7 @@
         <v>16.840428209310343</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -675,7 +663,7 @@
         <v>15.554021167306164</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -687,7 +675,7 @@
         <v>14.127497017100588</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -699,7 +687,7 @@
         <v>12.630742543047155</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -711,7 +699,7 @@
         <v>11.140238828809585</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -723,7 +711,7 @@
         <v>9.5767554728339412</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -735,7 +723,7 @@
         <v>8.0367163366924927</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -747,7 +735,7 @@
         <v>6.4622213594310818</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -759,7 +747,7 @@
         <v>4.8996185073561209</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -771,438 +759,342 @@
         <v>2.4074717928251115</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D18">
-        <v>1.349</v>
-      </c>
-      <c r="E18">
-        <v>167.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D19">
-        <v>1.349</v>
-      </c>
-      <c r="E19">
-        <v>167.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D20">
-        <v>1.349</v>
-      </c>
-      <c r="E20">
-        <v>167.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D21">
-        <v>1.349</v>
-      </c>
-      <c r="E21">
-        <v>167.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D22">
-        <v>1.349</v>
-      </c>
-      <c r="E22">
-        <v>167.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D23">
-        <v>1.349</v>
-      </c>
-      <c r="E23">
-        <v>167.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D24">
-        <v>1.349</v>
-      </c>
-      <c r="E24">
-        <v>167.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D25">
-        <v>1.349</v>
-      </c>
-      <c r="E25">
-        <v>167.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D26">
-        <v>1.349</v>
-      </c>
-      <c r="E26">
-        <v>167.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C27">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D27">
-        <v>1.349</v>
-      </c>
-      <c r="E27">
-        <v>167.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D28">
-        <v>1.349</v>
-      </c>
-      <c r="E28">
-        <v>167.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D29">
-        <v>1.349</v>
-      </c>
-      <c r="E29">
-        <v>167.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C30">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D30">
-        <v>1.349</v>
-      </c>
-      <c r="E30">
-        <v>167.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D31">
-        <v>1.349</v>
-      </c>
-      <c r="E31">
-        <v>167.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D32">
-        <v>1.349</v>
-      </c>
-      <c r="E32">
-        <v>167.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D33">
-        <v>1.349</v>
-      </c>
-      <c r="E33">
-        <v>167.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>0.15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C35">
         <v>0.15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>0.15</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C37">
         <v>0.15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C38">
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C39">
         <v>0.15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C40">
         <v>0.15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <v>0.15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C42">
         <v>0.15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C43">
         <v>0.15</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C44">
         <v>0.15</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C45">
         <v>0.15</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C46">
         <v>0.15</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C47">
         <v>0.15</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C48">
         <v>0.15</v>
@@ -1213,7 +1105,7 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C49">
         <v>0.15</v>
@@ -1224,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>1.7999999999999999E-2</v>
@@ -1235,7 +1127,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>1.7999999999999999E-2</v>
@@ -1246,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>1.7999999999999999E-2</v>
@@ -1257,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>1.7999999999999999E-2</v>
@@ -1268,7 +1160,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>1.7999999999999999E-2</v>
@@ -1279,7 +1171,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>1.7999999999999999E-2</v>
@@ -1290,7 +1182,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>1.7999999999999999E-2</v>
@@ -1301,7 +1193,7 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>1.7999999999999999E-2</v>
@@ -1312,7 +1204,7 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>1.7999999999999999E-2</v>
@@ -1323,7 +1215,7 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>1.7999999999999999E-2</v>
@@ -1334,7 +1226,7 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>1.7999999999999999E-2</v>
@@ -1345,7 +1237,7 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>1.7999999999999999E-2</v>
@@ -1356,7 +1248,7 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>1.7999999999999999E-2</v>
@@ -1367,7 +1259,7 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>1.7999999999999999E-2</v>
@@ -1378,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>1.7999999999999999E-2</v>
@@ -1389,7 +1281,7 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>1.7999999999999999E-2</v>
@@ -1787,7 +1679,7 @@
         <v>4.5696023644862684</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
